--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  NISAR STATIONARY</t>
+  </si>
+  <si>
+    <t>GS-16-2-23</t>
   </si>
 </sst>
 </file>
@@ -1145,27 +1148,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44924</v>
-      </c>
-      <c r="B5" s="8">
-        <v>19626</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44936</v>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="8">
-        <v>19626</v>
+        <v>595</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1176,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1192,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1208,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1224,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1240,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1256,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>19626</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1659,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>19626</v>
+        <v>595</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  NISAR STATIONARY</t>
-  </si>
-  <si>
-    <t>GS-16-2-23</t>
   </si>
 </sst>
 </file>
@@ -1152,19 +1149,15 @@
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>595</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1658,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1681,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,19 +1145,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45080</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11972</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1169,11 +1173,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1189,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1221,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1237,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1253,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,23 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45080</v>
-      </c>
-      <c r="B5" s="8">
-        <v>11972</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,35 +1145,43 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45190</v>
+      </c>
+      <c r="B5" s="8">
+        <v>22772</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>22772</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>45219</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12906</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45112</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NISAR STATIONARY.xlsx
+++ b/IMPORTANT/NISAR STATIONARY.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45190</v>
+        <v>45230</v>
       </c>
       <c r="B5" s="8">
-        <v>22772</v>
+        <v>26956</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1157,31 +1157,27 @@
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>22772</v>
+        <v>26956</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>45219</v>
-      </c>
-      <c r="B6" s="8">
-        <v>12906</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>5</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1189,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1205,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1221,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1237,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1253,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1269,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1285,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1301,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1317,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1333,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1349,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1682,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
